--- a/2017-2018/data_2017.xlsx
+++ b/2017-2018/data_2017.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sdelquin/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sdelquin/Dropbox/Code/analitica/2017-2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="1820" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="4520" yWindow="1940" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="EVAL1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
   <si>
     <t>ESO1A</t>
   </si>
@@ -59,15 +59,6 @@
     <t>ESO3Z</t>
   </si>
   <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>success</t>
-  </si>
-  <si>
-    <t>stage</t>
-  </si>
-  <si>
     <t>ratio</t>
   </si>
   <si>
@@ -159,6 +150,24 @@
   </si>
   <si>
     <t>2DAW</t>
+  </si>
+  <si>
+    <t>grupo</t>
+  </si>
+  <si>
+    <t>etapa</t>
+  </si>
+  <si>
+    <t>éxito</t>
+  </si>
+  <si>
+    <t>absentismo</t>
+  </si>
+  <si>
+    <t>partes</t>
+  </si>
+  <si>
+    <t>suspensión_asistencia</t>
   </si>
 </sst>
 </file>
@@ -482,515 +491,689 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>32</v>
       </c>
       <c r="D2">
+        <v>8.66</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="G2">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>43.5</v>
       </c>
       <c r="D3">
+        <v>6.13</v>
+      </c>
+      <c r="G3">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>44</v>
       </c>
       <c r="D4">
+        <v>4.82</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="G4">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>46</v>
+        <v>46.2</v>
       </c>
       <c r="D5">
+        <v>2.94</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="G5">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="D6">
+        <v>5.95</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>35</v>
+        <v>34.5</v>
       </c>
       <c r="D7">
+        <v>5.09</v>
+      </c>
+      <c r="E7">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>44</v>
+        <v>44.4</v>
       </c>
       <c r="D8">
+        <v>3.79</v>
+      </c>
+      <c r="G8">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="D9">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="G9">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>20.7</v>
       </c>
       <c r="D10">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="G10">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D11">
+        <v>7.19</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="G11">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>6.7</v>
+      </c>
+      <c r="D12">
+        <v>19.07</v>
+      </c>
+      <c r="E12">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>25.9</v>
+      </c>
+      <c r="D13">
+        <v>3.67</v>
+      </c>
+      <c r="G13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="C12">
-        <v>7</v>
-      </c>
-      <c r="D12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13">
-        <v>26</v>
-      </c>
-      <c r="D13">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <v>32</v>
       </c>
       <c r="D14">
+        <v>5.08</v>
+      </c>
+      <c r="G14">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>11.1</v>
+      </c>
+      <c r="D15">
+        <v>43.49</v>
+      </c>
+      <c r="E15">
+        <v>16</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="G15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>63.6</v>
+      </c>
+      <c r="D16">
+        <v>12.32</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>19</v>
       </c>
-      <c r="C15">
-        <v>11</v>
-      </c>
-      <c r="D15">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="C17">
+        <v>47.8</v>
+      </c>
+      <c r="D17">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="G17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="C16">
-        <v>64</v>
-      </c>
-      <c r="D16">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="C18">
+        <v>48.1</v>
+      </c>
+      <c r="D18">
+        <v>4.54</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>51.9</v>
+      </c>
+      <c r="D19">
+        <v>5.03</v>
+      </c>
+      <c r="G19">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="C17">
-        <v>48</v>
-      </c>
-      <c r="D17">
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>38.1</v>
+      </c>
+      <c r="D20">
+        <v>3.5</v>
+      </c>
+      <c r="G20">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18">
-        <v>48</v>
-      </c>
-      <c r="D18">
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>29.4</v>
+      </c>
+      <c r="D21">
+        <v>13.82</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>6.2</v>
+      </c>
+      <c r="D22">
+        <v>21.02</v>
+      </c>
+      <c r="G22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B23" t="s">
         <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19">
-        <v>52</v>
-      </c>
-      <c r="D19">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20">
-        <v>38</v>
-      </c>
-      <c r="D20">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21">
-        <v>29</v>
-      </c>
-      <c r="D21">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22">
-        <v>6</v>
-      </c>
-      <c r="D22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
       </c>
       <c r="C23">
         <v>55</v>
       </c>
       <c r="D23">
+        <v>29.07</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="G23">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>90.9</v>
+      </c>
+      <c r="D24">
+        <v>7.26</v>
+      </c>
+      <c r="G24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>66.7</v>
+      </c>
+      <c r="D25">
+        <v>8.18</v>
+      </c>
+      <c r="G25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>81.8</v>
+      </c>
+      <c r="D26">
+        <v>9.11</v>
+      </c>
+      <c r="G26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>30</v>
       </c>
-      <c r="B24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24">
-        <v>91</v>
-      </c>
-      <c r="D24">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="B27" t="s">
         <v>31</v>
       </c>
-      <c r="B25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25">
-        <v>67</v>
-      </c>
-      <c r="D25">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="C27">
+        <v>41.2</v>
+      </c>
+      <c r="D27">
+        <v>13.25</v>
+      </c>
+      <c r="G27">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="B26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26">
-        <v>82</v>
-      </c>
-      <c r="D26">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28">
+        <v>65.5</v>
+      </c>
+      <c r="D28">
+        <v>14.61</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>33</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29">
+        <v>44.8</v>
+      </c>
+      <c r="D29">
+        <v>14.72</v>
+      </c>
+      <c r="G29">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>34</v>
       </c>
-      <c r="C27">
-        <v>41</v>
-      </c>
-      <c r="D27">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30">
+        <v>32.1</v>
+      </c>
+      <c r="D30">
+        <v>14.25</v>
+      </c>
+      <c r="G30">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>35</v>
       </c>
-      <c r="B28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28">
-        <v>41</v>
-      </c>
-      <c r="D28">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>15.4</v>
+      </c>
+      <c r="D31">
+        <v>18.920000000000002</v>
+      </c>
+      <c r="G31">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>36</v>
       </c>
-      <c r="B29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29">
-        <v>45</v>
-      </c>
-      <c r="D29">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>45.5</v>
+      </c>
+      <c r="D32">
+        <v>7.31</v>
+      </c>
+      <c r="G32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>37</v>
       </c>
-      <c r="B30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30">
-        <v>32</v>
-      </c>
-      <c r="D30">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>77.3</v>
+      </c>
+      <c r="D33">
+        <v>10.27</v>
+      </c>
+      <c r="G33">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>38</v>
       </c>
-      <c r="B31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31">
-        <v>15</v>
-      </c>
-      <c r="D31">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34">
+        <v>72.2</v>
+      </c>
+      <c r="D34">
+        <v>17.5</v>
+      </c>
+      <c r="G34">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>39</v>
       </c>
-      <c r="B32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32">
-        <v>45</v>
-      </c>
-      <c r="D32">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="B35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35">
+        <v>94.7</v>
+      </c>
+      <c r="D35">
+        <v>5.01</v>
+      </c>
+      <c r="G35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>40</v>
       </c>
-      <c r="B33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33">
-        <v>77</v>
-      </c>
-      <c r="D33">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34">
-        <v>72</v>
-      </c>
-      <c r="D34">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35">
-        <v>95</v>
-      </c>
-      <c r="D35">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>43</v>
-      </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C36">
         <v>40</v>
       </c>
       <c r="D36">
+        <v>13.19</v>
+      </c>
+      <c r="G36">
         <v>16</v>
       </c>
     </row>
